--- a/data/trans_orig/P14C35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C72D54F-808A-45A8-8A39-258685EE8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5384FCE-A217-49A5-9EFB-071D71E3E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35CC509B-42B5-41EF-BC18-8A00BD8A3955}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD534413-D719-4090-92BE-7C4746BA68AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>63,95%</t>
   </si>
   <si>
-    <t>19,33%</t>
+    <t>18,74%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>72,29%</t>
+    <t>68,46%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>78,34%</t>
+    <t>79,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,13 +128,13 @@
     <t>81,69%</t>
   </si>
   <si>
-    <t>53,74%</t>
+    <t>45,56%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>46,26%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -146,13 +146,13 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>63,04%</t>
+    <t>61,17%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>36,96%</t>
+    <t>38,83%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -164,52 +164,52 @@
     <t>81,38%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150213A-04D2-44DA-9302-E2EF47587FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183CB62-1308-40F7-953C-A76C86648033}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5384FCE-A217-49A5-9EFB-071D71E3E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{089D144C-5657-496F-A060-C3F962BF69BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD534413-D719-4090-92BE-7C4746BA68AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0AE233A-5337-4043-9362-E271D42241DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="59">
   <si>
-    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2015 (Tasa respuesta: 0,93%)</t>
+    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2016 (Tasa respuesta: 0,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,58 +101,58 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>18,74%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>68,46%</t>
+    <t>81,26%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>53,9%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>46,1%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>61,17%</t>
+    <t>59,39%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>38,83%</t>
+    <t>40,61%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -164,43 +164,43 @@
     <t>81,38%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>9,11%</t>
@@ -209,7 +209,7 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183CB62-1308-40F7-953C-A76C86648033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D917023A-8E27-4171-9875-E73BC50EB491}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
